--- a/nodes_source_analyses/energy/energy_power_nuclear_gen2_uranium_oxide.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_nuclear_gen2_uranium_oxide.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -314,9 +322,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -567,17 +572,21 @@
   <si>
     <t>http://refman.et-model.com/publications/1969</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -723,11 +732,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1388,66 +1392,66 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1460,12 +1464,12 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1473,7 +1477,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1490,13 +1494,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1513,13 +1517,13 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1531,7 +1535,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1554,31 +1558,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1843,80 +1847,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2150,7 +2089,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2587,52 +2526,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2641,29 +2580,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="73" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="74"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="75"/>
       <c r="C10" s="76"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="75" t="s">
         <v>77</v>
@@ -2672,33 +2611,33 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="75"/>
       <c r="C12" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="75"/>
       <c r="C13" s="78" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="75" t="s">
         <v>82</v>
@@ -2707,49 +2646,49 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="75"/>
       <c r="C17" s="80" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="75"/>
       <c r="C18" s="81" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="75"/>
       <c r="C19" s="82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="83"/>
       <c r="C20" s="84" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="83"/>
       <c r="C21" s="85" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="83"/>
       <c r="C22" s="86" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="83"/>
       <c r="C23" s="87" t="s">
         <v>90</v>
@@ -2758,49 +2697,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="33" customWidth="1"/>
     <col min="3" max="3" width="46" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="33" customWidth="1"/>
     <col min="7" max="7" width="45" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="33"/>
+    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="144" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
@@ -2808,7 +2742,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="147"/>
       <c r="C3" s="148"/>
       <c r="D3" s="148"/>
@@ -2816,7 +2750,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="150"/>
       <c r="C4" s="151"/>
       <c r="D4" s="151"/>
@@ -2824,10 +2758,10 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="34"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2838,7 +2772,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="2:11" s="40" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="88"/>
       <c r="C7" s="15" t="s">
         <v>33</v>
@@ -2859,7 +2793,7 @@
       </c>
       <c r="J7" s="95"/>
     </row>
-    <row r="8" spans="2:11" s="40" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="40" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2870,10 +2804,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="41"/>
     </row>
-    <row r="9" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2883,10 +2817,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="41"/>
     </row>
-    <row r="10" spans="2:11" s="40" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -2903,7 +2837,7 @@
       </c>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36"/>
       <c r="C11" s="32" t="s">
         <v>35</v>
@@ -2923,7 +2857,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
       <c r="C12" s="32" t="s">
         <v>36</v>
@@ -2943,7 +2877,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
       <c r="C13" s="32" t="s">
         <v>38</v>
@@ -2963,7 +2897,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36"/>
       <c r="C14" s="32" t="s">
         <v>11</v>
@@ -2983,7 +2917,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36"/>
       <c r="C15" s="32" t="s">
         <v>41</v>
@@ -3003,7 +2937,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="31"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="32" t="s">
         <v>42</v>
@@ -3023,7 +2957,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36"/>
       <c r="C17" s="32" t="s">
         <v>43</v>
@@ -3045,7 +2979,7 @@
       </c>
       <c r="J17" s="96"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="32" t="s">
         <v>44</v>
@@ -3066,7 +3000,7 @@
       </c>
       <c r="J18" s="96"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36"/>
       <c r="C19" s="69" t="s">
         <v>65</v>
@@ -3087,7 +3021,7 @@
       </c>
       <c r="J19" s="96"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36"/>
       <c r="C20" s="69" t="s">
         <v>66</v>
@@ -3108,7 +3042,7 @@
       </c>
       <c r="J20" s="96"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36"/>
       <c r="C21" s="69" t="s">
         <v>67</v>
@@ -3129,7 +3063,7 @@
       </c>
       <c r="J21" s="96"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36"/>
       <c r="C22" s="69" t="s">
         <v>68</v>
@@ -3150,7 +3084,7 @@
       </c>
       <c r="J22" s="96"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36"/>
       <c r="C23" s="69" t="s">
         <v>69</v>
@@ -3171,7 +3105,7 @@
       </c>
       <c r="J23" s="96"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
       <c r="C24" s="72"/>
       <c r="D24" s="91"/>
@@ -3182,10 +3116,10 @@
       <c r="I24" s="31"/>
       <c r="J24" s="96"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
       <c r="C25" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="91"/>
       <c r="E25" s="92"/>
@@ -3195,7 +3129,7 @@
       <c r="I25" s="31"/>
       <c r="J25" s="96"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="36"/>
       <c r="C26" s="32" t="s">
         <v>45</v>
@@ -3213,11 +3147,11 @@
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J26" s="96"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="36"/>
       <c r="C27" s="32" t="s">
         <v>46</v>
@@ -3238,7 +3172,7 @@
       </c>
       <c r="J27" s="96"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="36"/>
       <c r="C28" s="32" t="s">
         <v>13</v>
@@ -3259,7 +3193,7 @@
       </c>
       <c r="J28" s="96"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="36"/>
       <c r="C29" s="32" t="s">
         <v>47</v>
@@ -3277,11 +3211,11 @@
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J29" s="96"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="36"/>
       <c r="C30" s="32" t="s">
         <v>48</v>
@@ -3303,7 +3237,7 @@
       </c>
       <c r="J30" s="96"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="36"/>
       <c r="C31" s="32" t="s">
         <v>49</v>
@@ -3325,7 +3259,7 @@
       </c>
       <c r="J31" s="96"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="36"/>
       <c r="C32" s="32" t="s">
         <v>50</v>
@@ -3346,7 +3280,7 @@
       </c>
       <c r="J32" s="96"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
       <c r="C33" s="32" t="s">
         <v>53</v>
@@ -3367,7 +3301,7 @@
       </c>
       <c r="J33" s="96"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="36"/>
       <c r="C34" s="32" t="s">
         <v>40</v>
@@ -3386,7 +3320,7 @@
       </c>
       <c r="J34" s="96"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="36"/>
       <c r="C35" s="32"/>
       <c r="D35" s="19"/>
@@ -3397,7 +3331,7 @@
       <c r="I35" s="31"/>
       <c r="J35" s="96"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="36"/>
       <c r="C36" s="14" t="s">
         <v>8</v>
@@ -3410,7 +3344,7 @@
       <c r="I36" s="31"/>
       <c r="J36" s="96"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="36"/>
       <c r="C37" s="32" t="s">
         <v>39</v>
@@ -3428,11 +3362,11 @@
       </c>
       <c r="H37" s="32"/>
       <c r="I37" s="133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J37" s="96"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="36"/>
       <c r="C38" s="32" t="s">
         <v>51</v>
@@ -3450,11 +3384,11 @@
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="134" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J38" s="96"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="36"/>
       <c r="C39" s="32" t="s">
         <v>52</v>
@@ -3472,11 +3406,11 @@
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="137" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J39" s="96"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="36"/>
       <c r="C40" s="32" t="s">
         <v>37</v>
@@ -3495,10 +3429,10 @@
       </c>
       <c r="J40" s="96"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="36"/>
       <c r="C41" s="100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="90">
@@ -3512,10 +3446,10 @@
       </c>
       <c r="J41" s="96"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="36"/>
       <c r="C42" s="100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="90">
@@ -3529,7 +3463,7 @@
       </c>
       <c r="J42" s="96"/>
     </row>
-    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="43" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
@@ -3546,43 +3480,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3597,32 +3494,31 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="102" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="102" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="102" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="102" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="102" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="102" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="102" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="102" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="103" customWidth="1"/>
-    <col min="10" max="10" width="3.375" style="103" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="103" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="102" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="102" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="102" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="102" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="102" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="102" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="102" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="103" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="103" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="103" customWidth="1"/>
     <col min="12" max="12" width="3" style="103" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="103" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="103" customWidth="1"/>
     <col min="14" max="14" width="3" style="103" customWidth="1"/>
-    <col min="15" max="15" width="9.375" style="103" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="103" customWidth="1"/>
     <col min="16" max="16" width="3" style="103" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="103" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="103" customWidth="1"/>
     <col min="18" max="18" width="3" style="103" customWidth="1"/>
     <col min="19" max="19" width="60" style="102" customWidth="1"/>
-    <col min="20" max="16384" width="10.625" style="102"/>
+    <col min="20" max="16384" width="10.7109375" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="16" thickBot="1"/>
-    <row r="2" spans="2:19">
+    <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="104"/>
       <c r="C2" s="105"/>
       <c r="D2" s="105"/>
@@ -3642,10 +3538,10 @@
       <c r="R2" s="106"/>
       <c r="S2" s="105"/>
     </row>
-    <row r="3" spans="2:19" s="21" customFormat="1">
+    <row r="3" spans="2:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3657,30 +3553,30 @@
       </c>
       <c r="H3" s="97"/>
       <c r="I3" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="65"/>
       <c r="K3" s="65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N3" s="65"/>
       <c r="O3" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P3" s="65"/>
       <c r="Q3" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R3" s="65"/>
       <c r="S3" s="97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="107"/>
       <c r="C4" s="108"/>
       <c r="D4" s="108"/>
@@ -3700,10 +3596,10 @@
       <c r="R4" s="102"/>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="2:19" ht="16" thickBot="1">
+    <row r="5" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="107"/>
       <c r="C5" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3722,7 +3618,7 @@
       <c r="R5" s="102"/>
       <c r="S5" s="110"/>
     </row>
-    <row r="6" spans="2:19" ht="16" thickBot="1">
+    <row r="6" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="107"/>
       <c r="C6" s="111" t="s">
         <v>30</v>
@@ -3752,10 +3648,10 @@
       <c r="R6" s="102"/>
       <c r="S6" s="110"/>
     </row>
-    <row r="7" spans="2:19" ht="16" thickBot="1">
+    <row r="7" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="107"/>
       <c r="C7" s="115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="111"/>
       <c r="E7" s="111"/>
@@ -3779,7 +3675,7 @@
       <c r="R7" s="102"/>
       <c r="S7" s="110"/>
     </row>
-    <row r="8" spans="2:19" ht="16" thickBot="1">
+    <row r="8" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="107"/>
       <c r="C8" s="116"/>
       <c r="D8" s="116"/>
@@ -3799,7 +3695,7 @@
       <c r="R8" s="102"/>
       <c r="S8" s="119"/>
     </row>
-    <row r="9" spans="2:19" ht="16" thickBot="1">
+    <row r="9" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="107"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
@@ -3823,13 +3719,13 @@
       </c>
       <c r="R9" s="102"/>
       <c r="S9" s="132" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="16" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="107"/>
       <c r="C10" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="115"/>
       <c r="E10" s="115"/>
@@ -3852,10 +3748,10 @@
       <c r="Q10" s="102"/>
       <c r="R10" s="102"/>
       <c r="S10" s="101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="16" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="107"/>
       <c r="C11" s="122" t="s">
         <v>1</v>
@@ -3884,10 +3780,10 @@
       <c r="Q11" s="102"/>
       <c r="R11" s="102"/>
       <c r="S11" s="101" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="16" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="107"/>
       <c r="C12" s="124" t="s">
         <v>6</v>
@@ -3917,7 +3813,7 @@
       <c r="R12" s="102"/>
       <c r="S12" s="110"/>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="107"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -3937,10 +3833,10 @@
       <c r="R13" s="102"/>
       <c r="S13" s="110"/>
     </row>
-    <row r="14" spans="2:19" ht="16" thickBot="1">
+    <row r="14" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="107"/>
       <c r="C14" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3959,10 +3855,10 @@
       <c r="R14" s="102"/>
       <c r="S14" s="110"/>
     </row>
-    <row r="15" spans="2:19" ht="16" thickBot="1">
+    <row r="15" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="107"/>
       <c r="C15" s="111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -3986,7 +3882,7 @@
       <c r="R15" s="102"/>
       <c r="S15" s="110"/>
     </row>
-    <row r="16" spans="2:19" ht="16" thickBot="1">
+    <row r="16" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="107"/>
       <c r="C16" s="126" t="s">
         <v>9</v>
@@ -3994,7 +3890,7 @@
       <c r="D16" s="126"/>
       <c r="E16" s="126"/>
       <c r="F16" s="112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="123">
         <v>2052</v>
@@ -4014,13 +3910,13 @@
       <c r="Q16" s="102"/>
       <c r="R16" s="102"/>
       <c r="S16" s="110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="16" thickBot="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="107"/>
       <c r="C17" s="111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -4044,15 +3940,15 @@
       <c r="R17" s="102"/>
       <c r="S17" s="110"/>
     </row>
-    <row r="18" spans="2:19" ht="16" thickBot="1">
+    <row r="18" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="107"/>
       <c r="C18" s="111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" s="127">
         <f>ROUND(25.48,2)</f>
@@ -4071,10 +3967,10 @@
       <c r="R18" s="102"/>
       <c r="S18" s="110"/>
     </row>
-    <row r="19" spans="2:19" ht="16" thickBot="1">
+    <row r="19" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="107"/>
       <c r="C19" s="111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="128"/>
       <c r="E19" s="128"/>
@@ -4097,13 +3993,13 @@
       <c r="Q19" s="102"/>
       <c r="R19" s="102"/>
       <c r="S19" s="110" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" ht="16" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="107"/>
       <c r="C20" s="115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="129"/>
       <c r="E20" s="129"/>
@@ -4127,15 +4023,15 @@
       <c r="R20" s="102"/>
       <c r="S20" s="101"/>
     </row>
-    <row r="21" spans="2:19" ht="16" thickBot="1">
+    <row r="21" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="107"/>
       <c r="C21" s="115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" s="129"/>
       <c r="E21" s="129"/>
       <c r="F21" s="112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="120">
         <f>ROUND(K21,2)</f>
@@ -4156,18 +4052,18 @@
       <c r="Q21" s="102"/>
       <c r="R21" s="102"/>
       <c r="S21" s="101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="16" thickBot="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="107"/>
       <c r="C22" s="115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="129"/>
       <c r="E22" s="129"/>
       <c r="F22" s="112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="120">
         <f>G23*G6</f>
@@ -4185,18 +4081,18 @@
       <c r="Q22" s="102"/>
       <c r="R22" s="102"/>
       <c r="S22" s="101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" ht="16" thickBot="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="107"/>
       <c r="C23" s="115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="129"/>
       <c r="E23" s="129"/>
       <c r="F23" s="112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="120">
         <v>7800</v>
@@ -4217,11 +4113,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4236,22 +4127,22 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="44" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="44" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="32.125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="93.875" style="44" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="44"/>
+    <col min="1" max="1" width="3.28515625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="44" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="93.85546875" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -4263,7 +4154,7 @@
       <c r="J2" s="48"/>
       <c r="K2" s="47"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="49"/>
       <c r="C3" s="50" t="s">
         <v>23</v>
@@ -4277,7 +4168,7 @@
       <c r="J3" s="51"/>
       <c r="K3" s="52"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="49"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -4289,7 +4180,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="54"/>
       <c r="C5" s="55" t="s">
         <v>31</v>
@@ -4305,19 +4196,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>62</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="49"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
@@ -4329,34 +4220,34 @@
       <c r="J6" s="51"/>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="49"/>
       <c r="C7" s="63"/>
       <c r="D7" s="57"/>
       <c r="E7" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" s="67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="49"/>
       <c r="C8" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="52"/>
@@ -4367,7 +4258,7 @@
       <c r="J8" s="53"/>
       <c r="K8" s="68"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="57"/>
       <c r="D9" s="58"/>
@@ -4379,34 +4270,34 @@
       <c r="J9" s="53"/>
       <c r="K9" s="68"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="49"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="60"/>
       <c r="J10" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K10" s="57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="49"/>
       <c r="C11" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="57"/>
@@ -4417,7 +4308,7 @@
       <c r="J11" s="60"/>
       <c r="K11" s="57"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="49"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
@@ -4429,12 +4320,12 @@
       <c r="J12" s="64"/>
       <c r="K12" s="61"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="49"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="57" t="s">
         <v>64</v>
@@ -4447,16 +4338,16 @@
       </c>
       <c r="I13" s="57"/>
       <c r="J13" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="49"/>
       <c r="C14" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="52"/>
@@ -4467,7 +4358,7 @@
       <c r="J14" s="64"/>
       <c r="K14" s="61"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="49"/>
       <c r="C15" s="58"/>
       <c r="D15" s="57"/>
@@ -4479,15 +4370,15 @@
       <c r="J15" s="64"/>
       <c r="K15" s="57"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="49"/>
       <c r="C16" s="58"/>
       <c r="D16" s="57"/>
       <c r="E16" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="66">
         <v>2012</v>
@@ -4495,16 +4386,16 @@
       <c r="H16" s="66"/>
       <c r="I16" s="57"/>
       <c r="J16" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="49"/>
       <c r="C17" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="52"/>
@@ -4515,7 +4406,7 @@
       <c r="J17" s="64"/>
       <c r="K17" s="57"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="49"/>
       <c r="C18" s="58"/>
       <c r="D18" s="57"/>
@@ -4527,15 +4418,15 @@
       <c r="J18" s="64"/>
       <c r="K18" s="57"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="49"/>
       <c r="C19" s="58"/>
       <c r="D19" s="57"/>
       <c r="E19" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="66">
         <v>2009</v>
@@ -4545,16 +4436,16 @@
       </c>
       <c r="I19" s="57"/>
       <c r="J19" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="49"/>
       <c r="C20" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="52"/>
@@ -4574,11 +4465,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7 G10:H10" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4590,15 +4476,15 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="135" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="135" customWidth="1"/>
     <col min="2" max="2" width="5" style="135" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="135"/>
+    <col min="3" max="16384" width="10.7109375" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15" s="21" customFormat="1">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="138"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4614,14 +4500,14 @@
       <c r="N2" s="16"/>
       <c r="O2" s="139"/>
     </row>
-    <row r="3" spans="2:15" s="21" customFormat="1">
+    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="88"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -4634,7 +4520,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="143"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="140"/>
       <c r="C4" s="141"/>
       <c r="D4" s="141"/>
@@ -4650,10 +4536,10 @@
       <c r="N4" s="141"/>
       <c r="O4" s="142"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="140"/>
       <c r="C5" s="136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="136"/>
       <c r="E5" s="136"/>
@@ -4668,10 +4554,10 @@
       <c r="N5" s="141"/>
       <c r="O5" s="142"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="140"/>
       <c r="C6" s="136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="136"/>
       <c r="E6" s="136"/>
@@ -4686,7 +4572,7 @@
       <c r="N6" s="141"/>
       <c r="O6" s="142"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="140"/>
       <c r="C7" s="136"/>
       <c r="D7" s="136"/>
@@ -4702,7 +4588,7 @@
       <c r="N7" s="141"/>
       <c r="O7" s="142"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="140"/>
       <c r="C8" s="136"/>
       <c r="D8" s="136"/>
@@ -4718,7 +4604,7 @@
       <c r="N8" s="141"/>
       <c r="O8" s="142"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="140"/>
       <c r="C9" s="136"/>
       <c r="D9" s="136"/>
@@ -4734,7 +4620,7 @@
       <c r="N9" s="141"/>
       <c r="O9" s="142"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="140"/>
       <c r="C10" s="136"/>
       <c r="D10" s="136"/>
@@ -4754,7 +4640,7 @@
       <c r="N10" s="141"/>
       <c r="O10" s="142"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="140"/>
       <c r="C11" s="136"/>
       <c r="D11" s="136"/>
@@ -4770,17 +4656,17 @@
       <c r="N11" s="141"/>
       <c r="O11" s="142"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="140"/>
       <c r="C12" s="136"/>
       <c r="D12" s="136" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="136" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="136" t="s">
         <v>147</v>
-      </c>
-      <c r="F12" s="136" t="s">
-        <v>148</v>
       </c>
       <c r="G12" s="141"/>
       <c r="H12" s="141"/>
@@ -4792,17 +4678,17 @@
       <c r="N12" s="141"/>
       <c r="O12" s="142"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="140"/>
       <c r="C13" s="136"/>
       <c r="D13" s="136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="136">
         <v>700</v>
       </c>
       <c r="F13" s="136" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="141"/>
       <c r="H13" s="141"/>
@@ -4814,7 +4700,7 @@
       <c r="N13" s="141"/>
       <c r="O13" s="142"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="140"/>
       <c r="C14" s="136"/>
       <c r="D14" s="136"/>
@@ -4830,7 +4716,7 @@
       <c r="N14" s="141"/>
       <c r="O14" s="142"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="140"/>
       <c r="C15" s="141"/>
       <c r="D15" s="141"/>
@@ -4846,7 +4732,7 @@
       <c r="N15" s="141"/>
       <c r="O15" s="142"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="140"/>
       <c r="C16" s="141"/>
       <c r="D16" s="141"/>
@@ -4862,7 +4748,7 @@
       <c r="N16" s="141"/>
       <c r="O16" s="142"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="140"/>
       <c r="C17" s="141"/>
       <c r="D17" s="141"/>
@@ -4878,7 +4764,7 @@
       <c r="N17" s="141"/>
       <c r="O17" s="142"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="140"/>
       <c r="C18" s="141"/>
       <c r="D18" s="141"/>
@@ -4894,7 +4780,7 @@
       <c r="N18" s="141"/>
       <c r="O18" s="142"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="140"/>
       <c r="C19" s="141"/>
       <c r="D19" s="141"/>
@@ -4910,7 +4796,7 @@
       <c r="N19" s="141"/>
       <c r="O19" s="142"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="140"/>
       <c r="C20" s="141"/>
       <c r="D20" s="141"/>
@@ -4926,7 +4812,7 @@
       <c r="N20" s="141"/>
       <c r="O20" s="142"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="140"/>
       <c r="C21" s="141"/>
       <c r="D21" s="141"/>
@@ -4942,7 +4828,7 @@
       <c r="N21" s="141"/>
       <c r="O21" s="142"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="140"/>
       <c r="C22" s="141"/>
       <c r="D22" s="141"/>
@@ -4958,7 +4844,7 @@
       <c r="N22" s="141"/>
       <c r="O22" s="142"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="140"/>
       <c r="C23" s="141"/>
       <c r="D23" s="141"/>
@@ -4974,10 +4860,10 @@
       <c r="N23" s="141"/>
       <c r="O23" s="142"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="140"/>
       <c r="C24" s="141" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="141"/>
       <c r="E24" s="141"/>
@@ -4992,10 +4878,10 @@
       <c r="N24" s="141"/>
       <c r="O24" s="142"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="140"/>
       <c r="C25" s="136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="141"/>
       <c r="E25" s="141"/>
@@ -5010,7 +4896,7 @@
       <c r="N25" s="141"/>
       <c r="O25" s="142"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="140"/>
       <c r="C26" s="141"/>
       <c r="D26" s="141"/>
@@ -5026,7 +4912,7 @@
       <c r="N26" s="141"/>
       <c r="O26" s="142"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="140"/>
       <c r="C27" s="141"/>
       <c r="D27" s="141"/>
@@ -5042,7 +4928,7 @@
       <c r="N27" s="141"/>
       <c r="O27" s="142"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="140"/>
       <c r="C28" s="141"/>
       <c r="D28" s="141"/>
@@ -5058,7 +4944,7 @@
       <c r="N28" s="141"/>
       <c r="O28" s="142"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="140"/>
       <c r="C29" s="141"/>
       <c r="D29" s="141"/>
@@ -5074,7 +4960,7 @@
       <c r="N29" s="141"/>
       <c r="O29" s="142"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="140"/>
       <c r="C30" s="141"/>
       <c r="D30" s="141"/>
@@ -5090,7 +4976,7 @@
       <c r="N30" s="141"/>
       <c r="O30" s="142"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="140"/>
       <c r="C31" s="141"/>
       <c r="D31" s="141"/>
@@ -5110,7 +4996,7 @@
       <c r="N31" s="141"/>
       <c r="O31" s="142"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="140"/>
       <c r="C32" s="141"/>
       <c r="D32" s="141"/>
@@ -5118,7 +5004,7 @@
         <v>13460</v>
       </c>
       <c r="F32" s="136" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G32" s="141"/>
       <c r="H32" s="141"/>
@@ -5130,7 +5016,7 @@
       <c r="N32" s="141"/>
       <c r="O32" s="142"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="140"/>
       <c r="C33" s="141"/>
       <c r="D33" s="141"/>
@@ -5138,7 +5024,7 @@
         <v>2052</v>
       </c>
       <c r="F33" s="136" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G33" s="141"/>
       <c r="H33" s="141"/>
@@ -5150,7 +5036,7 @@
       <c r="N33" s="141"/>
       <c r="O33" s="142"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="140"/>
       <c r="C34" s="141"/>
       <c r="D34" s="141"/>
@@ -5166,7 +5052,7 @@
       <c r="N34" s="141"/>
       <c r="O34" s="142"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="140"/>
       <c r="C35" s="141"/>
       <c r="D35" s="141"/>
@@ -5182,7 +5068,7 @@
       <c r="N35" s="141"/>
       <c r="O35" s="142"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="140"/>
       <c r="C36" s="141"/>
       <c r="D36" s="141"/>
@@ -5198,7 +5084,7 @@
       <c r="N36" s="141"/>
       <c r="O36" s="142"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="140"/>
       <c r="C37" s="141"/>
       <c r="D37" s="141"/>
@@ -5214,7 +5100,7 @@
       <c r="N37" s="141"/>
       <c r="O37" s="142"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="140"/>
       <c r="C38" s="141"/>
       <c r="D38" s="141"/>
@@ -5230,10 +5116,10 @@
       <c r="N38" s="141"/>
       <c r="O38" s="142"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="140"/>
       <c r="C39" s="141" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="141"/>
       <c r="E39" s="141"/>
@@ -5248,10 +5134,10 @@
       <c r="N39" s="141"/>
       <c r="O39" s="142"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="140"/>
       <c r="C40" s="136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="141"/>
       <c r="E40" s="141"/>
@@ -5266,7 +5152,7 @@
       <c r="N40" s="141"/>
       <c r="O40" s="142"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="140"/>
       <c r="C41" s="141"/>
       <c r="D41" s="141"/>
@@ -5282,7 +5168,7 @@
       <c r="N41" s="141"/>
       <c r="O41" s="142"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="140"/>
       <c r="C42" s="141"/>
       <c r="D42" s="141"/>
@@ -5298,7 +5184,7 @@
       <c r="N42" s="141"/>
       <c r="O42" s="142"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="140"/>
       <c r="C43" s="141"/>
       <c r="D43" s="141"/>
@@ -5314,7 +5200,7 @@
       <c r="N43" s="141"/>
       <c r="O43" s="142"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="140"/>
       <c r="C44" s="141"/>
       <c r="D44" s="141"/>
@@ -5322,7 +5208,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G44" s="141"/>
       <c r="H44" s="141"/>
@@ -5334,7 +5220,7 @@
       <c r="N44" s="141"/>
       <c r="O44" s="142"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="140"/>
       <c r="C45" s="141"/>
       <c r="D45" s="141"/>
@@ -5350,7 +5236,7 @@
       <c r="N45" s="141"/>
       <c r="O45" s="142"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="140"/>
       <c r="C46" s="141"/>
       <c r="D46" s="141"/>
@@ -5366,7 +5252,7 @@
       <c r="N46" s="141"/>
       <c r="O46" s="142"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="140"/>
       <c r="C47" s="141"/>
       <c r="D47" s="141"/>
@@ -5382,7 +5268,7 @@
       <c r="N47" s="141"/>
       <c r="O47" s="142"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="140"/>
       <c r="C48" s="141"/>
       <c r="D48" s="141"/>
@@ -5398,10 +5284,10 @@
       <c r="N48" s="141"/>
       <c r="O48" s="142"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="140"/>
       <c r="C49" s="136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="141"/>
       <c r="E49" s="141"/>
@@ -5416,10 +5302,10 @@
       <c r="N49" s="141"/>
       <c r="O49" s="142"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="140"/>
       <c r="C50" s="136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="141"/>
       <c r="E50" s="141"/>
@@ -5434,7 +5320,7 @@
       <c r="N50" s="141"/>
       <c r="O50" s="142"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="140"/>
       <c r="C51" s="141"/>
       <c r="D51" s="141"/>
@@ -5450,7 +5336,7 @@
       <c r="N51" s="141"/>
       <c r="O51" s="142"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="140"/>
       <c r="C52" s="141"/>
       <c r="D52" s="141"/>
@@ -5466,7 +5352,7 @@
       <c r="N52" s="141"/>
       <c r="O52" s="142"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="140"/>
       <c r="C53" s="141"/>
       <c r="D53" s="141"/>
@@ -5482,7 +5368,7 @@
       <c r="N53" s="141"/>
       <c r="O53" s="142"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="140"/>
       <c r="C54" s="141"/>
       <c r="D54" s="141"/>
@@ -5498,7 +5384,7 @@
       <c r="N54" s="141"/>
       <c r="O54" s="142"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="140"/>
       <c r="C55" s="141"/>
       <c r="D55" s="141"/>
@@ -5514,7 +5400,7 @@
       <c r="N55" s="141"/>
       <c r="O55" s="142"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="140"/>
       <c r="C56" s="141"/>
       <c r="D56" s="141"/>
@@ -5530,7 +5416,7 @@
       <c r="N56" s="141"/>
       <c r="O56" s="142"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="140"/>
       <c r="C57" s="141"/>
       <c r="D57" s="141"/>
@@ -5546,7 +5432,7 @@
       <c r="N57" s="141"/>
       <c r="O57" s="142"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="140"/>
       <c r="C58" s="141"/>
       <c r="D58" s="141"/>
@@ -5562,7 +5448,7 @@
       <c r="N58" s="141"/>
       <c r="O58" s="142"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="140"/>
       <c r="C59" s="141"/>
       <c r="D59" s="141"/>
@@ -5578,7 +5464,7 @@
       <c r="N59" s="141"/>
       <c r="O59" s="142"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="140"/>
       <c r="C60" s="141"/>
       <c r="D60" s="141"/>
@@ -5594,7 +5480,7 @@
       <c r="N60" s="141"/>
       <c r="O60" s="142"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="140"/>
       <c r="C61" s="141"/>
       <c r="D61" s="141"/>
@@ -5610,7 +5496,7 @@
       <c r="N61" s="141"/>
       <c r="O61" s="142"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="140"/>
       <c r="C62" s="141"/>
       <c r="D62" s="141"/>
@@ -5626,7 +5512,7 @@
       <c r="N62" s="141"/>
       <c r="O62" s="142"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="140"/>
       <c r="C63" s="141"/>
       <c r="D63" s="141"/>
@@ -5642,7 +5528,7 @@
       <c r="N63" s="141"/>
       <c r="O63" s="142"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="140"/>
       <c r="C64" s="141"/>
       <c r="D64" s="141"/>
@@ -5658,7 +5544,7 @@
       <c r="N64" s="141"/>
       <c r="O64" s="142"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="140"/>
       <c r="C65" s="141"/>
       <c r="D65" s="141"/>
@@ -5674,7 +5560,7 @@
       <c r="N65" s="141"/>
       <c r="O65" s="142"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="140"/>
       <c r="C66" s="141"/>
       <c r="D66" s="141"/>
@@ -5690,7 +5576,7 @@
       <c r="N66" s="141"/>
       <c r="O66" s="142"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="140"/>
       <c r="C67" s="141"/>
       <c r="D67" s="141"/>
@@ -5706,7 +5592,7 @@
       <c r="N67" s="141"/>
       <c r="O67" s="142"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="140"/>
       <c r="C68" s="141"/>
       <c r="D68" s="141"/>
@@ -5722,7 +5608,7 @@
       <c r="N68" s="141"/>
       <c r="O68" s="142"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="140"/>
       <c r="C69" s="141"/>
       <c r="D69" s="141"/>
@@ -5738,7 +5624,7 @@
       <c r="N69" s="141"/>
       <c r="O69" s="142"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="140"/>
       <c r="C70" s="141"/>
       <c r="D70" s="141"/>
@@ -5754,7 +5640,7 @@
       <c r="N70" s="141"/>
       <c r="O70" s="142"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="140"/>
       <c r="C71" s="141"/>
       <c r="D71" s="141"/>
@@ -5770,7 +5656,7 @@
       <c r="N71" s="141"/>
       <c r="O71" s="142"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="140"/>
       <c r="C72" s="141"/>
       <c r="D72" s="141"/>
@@ -5786,7 +5672,7 @@
       <c r="N72" s="141"/>
       <c r="O72" s="142"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="140"/>
       <c r="C73" s="141"/>
       <c r="D73" s="141"/>
@@ -5802,7 +5688,7 @@
       <c r="N73" s="141"/>
       <c r="O73" s="142"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="140"/>
       <c r="C74" s="141"/>
       <c r="D74" s="141"/>
@@ -5818,7 +5704,7 @@
       <c r="N74" s="141"/>
       <c r="O74" s="142"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="140"/>
       <c r="C75" s="141"/>
       <c r="D75" s="141"/>
@@ -5826,7 +5712,7 @@
         <v>348</v>
       </c>
       <c r="F75" s="136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G75" s="141"/>
       <c r="H75" s="141"/>
@@ -5838,7 +5724,7 @@
       <c r="N75" s="141"/>
       <c r="O75" s="142"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="140"/>
       <c r="C76" s="141"/>
       <c r="D76" s="141"/>
@@ -5854,7 +5740,7 @@
       <c r="N76" s="141"/>
       <c r="O76" s="142"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="140"/>
       <c r="C77" s="141"/>
       <c r="D77" s="141"/>
@@ -5870,7 +5756,7 @@
       <c r="N77" s="141"/>
       <c r="O77" s="142"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="140"/>
       <c r="C78" s="141"/>
       <c r="D78" s="141"/>
@@ -5886,7 +5772,7 @@
       <c r="N78" s="141"/>
       <c r="O78" s="142"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="140"/>
       <c r="C79" s="141"/>
       <c r="D79" s="141"/>
@@ -5902,10 +5788,10 @@
       <c r="N79" s="141"/>
       <c r="O79" s="142"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="140"/>
       <c r="C80" s="136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D80" s="141"/>
       <c r="E80" s="141"/>
@@ -5920,10 +5806,10 @@
       <c r="N80" s="141"/>
       <c r="O80" s="142"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="140"/>
       <c r="C81" s="136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D81" s="141"/>
       <c r="E81" s="141"/>
@@ -5938,7 +5824,7 @@
       <c r="N81" s="141"/>
       <c r="O81" s="142"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="140"/>
       <c r="C82" s="141"/>
       <c r="D82" s="141"/>
@@ -5954,7 +5840,7 @@
       <c r="N82" s="141"/>
       <c r="O82" s="142"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="140"/>
       <c r="C83" s="141"/>
       <c r="D83" s="141"/>
@@ -5970,7 +5856,7 @@
       <c r="N83" s="141"/>
       <c r="O83" s="142"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="140"/>
       <c r="C84" s="141"/>
       <c r="D84" s="141"/>
@@ -5986,7 +5872,7 @@
       <c r="N84" s="141"/>
       <c r="O84" s="142"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="140"/>
       <c r="C85" s="141"/>
       <c r="D85" s="141"/>
@@ -6002,7 +5888,7 @@
       <c r="N85" s="141"/>
       <c r="O85" s="142"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="140"/>
       <c r="C86" s="141"/>
       <c r="D86" s="141"/>
@@ -6018,7 +5904,7 @@
       <c r="N86" s="141"/>
       <c r="O86" s="142"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="140"/>
       <c r="C87" s="141"/>
       <c r="D87" s="141"/>
@@ -6026,7 +5912,7 @@
         <v>40</v>
       </c>
       <c r="F87" s="136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G87" s="141"/>
       <c r="H87" s="141"/>
@@ -6038,7 +5924,7 @@
       <c r="N87" s="141"/>
       <c r="O87" s="142"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="140"/>
       <c r="C88" s="141"/>
       <c r="D88" s="141"/>
@@ -6054,7 +5940,7 @@
       <c r="N88" s="141"/>
       <c r="O88" s="142"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="140"/>
       <c r="C89" s="141"/>
       <c r="D89" s="141"/>
@@ -6070,7 +5956,7 @@
       <c r="N89" s="141"/>
       <c r="O89" s="142"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="140"/>
       <c r="C90" s="141"/>
       <c r="D90" s="141"/>
@@ -6086,7 +5972,7 @@
       <c r="N90" s="141"/>
       <c r="O90" s="142"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="140"/>
       <c r="C91" s="141"/>
       <c r="D91" s="141"/>
@@ -6102,7 +5988,7 @@
       <c r="N91" s="141"/>
       <c r="O91" s="142"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="140"/>
       <c r="C92" s="141"/>
       <c r="D92" s="141"/>
@@ -6118,7 +6004,7 @@
       <c r="N92" s="141"/>
       <c r="O92" s="142"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="140"/>
       <c r="C93" s="141"/>
       <c r="D93" s="141"/>
@@ -6134,7 +6020,7 @@
       <c r="N93" s="141"/>
       <c r="O93" s="142"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="140"/>
       <c r="C94" s="141"/>
       <c r="D94" s="141"/>
@@ -6150,7 +6036,7 @@
       <c r="N94" s="141"/>
       <c r="O94" s="142"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="140"/>
       <c r="C95" s="141"/>
       <c r="D95" s="141"/>
@@ -6166,7 +6052,7 @@
       <c r="N95" s="141"/>
       <c r="O95" s="142"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="140"/>
       <c r="C96" s="141"/>
       <c r="D96" s="141"/>
@@ -6182,7 +6068,7 @@
       <c r="N96" s="141"/>
       <c r="O96" s="142"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="140"/>
       <c r="C97" s="141"/>
       <c r="D97" s="141"/>
@@ -6198,7 +6084,7 @@
       <c r="N97" s="141"/>
       <c r="O97" s="142"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="140"/>
       <c r="C98" s="141"/>
       <c r="D98" s="141"/>
@@ -6214,7 +6100,7 @@
       <c r="N98" s="141"/>
       <c r="O98" s="142"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="140"/>
       <c r="C99" s="141"/>
       <c r="D99" s="141"/>
@@ -6230,7 +6116,7 @@
       <c r="N99" s="141"/>
       <c r="O99" s="142"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="140"/>
       <c r="C100" s="141"/>
       <c r="D100" s="141"/>
@@ -6246,7 +6132,7 @@
       <c r="N100" s="141"/>
       <c r="O100" s="142"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="140"/>
       <c r="C101" s="141"/>
       <c r="D101" s="141"/>
@@ -6262,7 +6148,7 @@
       <c r="N101" s="141"/>
       <c r="O101" s="142"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="140"/>
       <c r="C102" s="141"/>
       <c r="D102" s="141"/>
@@ -6278,7 +6164,7 @@
       <c r="N102" s="141"/>
       <c r="O102" s="142"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="140"/>
       <c r="C103" s="141"/>
       <c r="D103" s="141"/>
@@ -6294,7 +6180,7 @@
       <c r="N103" s="141"/>
       <c r="O103" s="142"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="140"/>
       <c r="C104" s="141"/>
       <c r="D104" s="141"/>
@@ -6310,7 +6196,7 @@
       <c r="N104" s="141"/>
       <c r="O104" s="142"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="140"/>
       <c r="C105" s="141"/>
       <c r="D105" s="141"/>
@@ -6326,7 +6212,7 @@
       <c r="N105" s="141"/>
       <c r="O105" s="142"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="140"/>
       <c r="C106" s="141"/>
       <c r="D106" s="141"/>
@@ -6342,7 +6228,7 @@
       <c r="N106" s="141"/>
       <c r="O106" s="142"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="140"/>
       <c r="C107" s="141"/>
       <c r="D107" s="141"/>
@@ -6358,7 +6244,7 @@
       <c r="N107" s="141"/>
       <c r="O107" s="142"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="140"/>
       <c r="C108" s="141"/>
       <c r="D108" s="141"/>
@@ -6374,7 +6260,7 @@
       <c r="N108" s="141"/>
       <c r="O108" s="142"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="140"/>
       <c r="C109" s="141"/>
       <c r="D109" s="141"/>
@@ -6390,7 +6276,7 @@
       <c r="N109" s="141"/>
       <c r="O109" s="142"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="140"/>
       <c r="C110" s="141"/>
       <c r="D110" s="141"/>
@@ -6406,7 +6292,7 @@
       <c r="N110" s="141"/>
       <c r="O110" s="142"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="140"/>
       <c r="C111" s="141"/>
       <c r="D111" s="141"/>
@@ -6422,7 +6308,7 @@
       <c r="N111" s="141"/>
       <c r="O111" s="142"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="140"/>
       <c r="C112" s="141"/>
       <c r="D112" s="141"/>
@@ -6438,7 +6324,7 @@
       <c r="N112" s="141"/>
       <c r="O112" s="142"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="140"/>
       <c r="C113" s="141"/>
       <c r="D113" s="141"/>
@@ -6454,7 +6340,7 @@
       <c r="N113" s="141"/>
       <c r="O113" s="142"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="140"/>
       <c r="C114" s="141"/>
       <c r="D114" s="141"/>
@@ -6470,7 +6356,7 @@
       <c r="N114" s="141"/>
       <c r="O114" s="142"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="140"/>
       <c r="C115" s="141"/>
       <c r="D115" s="141"/>
@@ -6486,7 +6372,7 @@
       <c r="N115" s="141"/>
       <c r="O115" s="142"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="140"/>
       <c r="C116" s="141"/>
       <c r="D116" s="141"/>
@@ -6502,7 +6388,7 @@
       <c r="N116" s="141"/>
       <c r="O116" s="142"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="140"/>
       <c r="C117" s="141"/>
       <c r="D117" s="141"/>
@@ -6518,7 +6404,7 @@
       <c r="N117" s="141"/>
       <c r="O117" s="142"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="140"/>
       <c r="C118" s="141"/>
       <c r="D118" s="141"/>
@@ -6534,7 +6420,7 @@
       <c r="N118" s="141"/>
       <c r="O118" s="142"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="140"/>
       <c r="C119" s="141"/>
       <c r="D119" s="141"/>
@@ -6550,7 +6436,7 @@
       <c r="N119" s="141"/>
       <c r="O119" s="142"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="140"/>
       <c r="C120" s="141"/>
       <c r="D120" s="141"/>
@@ -6566,7 +6452,7 @@
       <c r="N120" s="141"/>
       <c r="O120" s="142"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="140"/>
       <c r="C121" s="141"/>
       <c r="D121" s="141"/>
@@ -6582,7 +6468,7 @@
       <c r="N121" s="141"/>
       <c r="O121" s="142"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="140"/>
       <c r="C122" s="141"/>
       <c r="D122" s="141"/>
@@ -6598,7 +6484,7 @@
       <c r="N122" s="141"/>
       <c r="O122" s="142"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="140"/>
       <c r="C123" s="141"/>
       <c r="D123" s="141"/>
@@ -6614,7 +6500,7 @@
       <c r="N123" s="141"/>
       <c r="O123" s="142"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="140"/>
       <c r="C124" s="141"/>
       <c r="D124" s="141"/>
@@ -6630,7 +6516,7 @@
       <c r="N124" s="141"/>
       <c r="O124" s="142"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" s="140"/>
       <c r="C125" s="141"/>
       <c r="D125" s="141"/>
@@ -6646,7 +6532,7 @@
       <c r="N125" s="141"/>
       <c r="O125" s="142"/>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="140"/>
       <c r="C126" s="141"/>
       <c r="D126" s="141"/>
@@ -6662,7 +6548,7 @@
       <c r="N126" s="141"/>
       <c r="O126" s="142"/>
     </row>
-    <row r="127" spans="2:15">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="140"/>
       <c r="C127" s="141"/>
       <c r="D127" s="141"/>
@@ -6678,7 +6564,7 @@
       <c r="N127" s="141"/>
       <c r="O127" s="142"/>
     </row>
-    <row r="128" spans="2:15">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="140"/>
       <c r="C128" s="141"/>
       <c r="D128" s="141"/>
@@ -6694,7 +6580,7 @@
       <c r="N128" s="141"/>
       <c r="O128" s="142"/>
     </row>
-    <row r="129" spans="2:15">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129" s="140"/>
       <c r="C129" s="141"/>
       <c r="D129" s="141"/>
@@ -6710,7 +6596,7 @@
       <c r="N129" s="141"/>
       <c r="O129" s="142"/>
     </row>
-    <row r="130" spans="2:15">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130" s="140"/>
       <c r="C130" s="141"/>
       <c r="D130" s="141"/>
@@ -6726,7 +6612,7 @@
       <c r="N130" s="141"/>
       <c r="O130" s="142"/>
     </row>
-    <row r="131" spans="2:15">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131" s="140"/>
       <c r="C131" s="141"/>
       <c r="D131" s="141"/>
@@ -6742,7 +6628,7 @@
       <c r="N131" s="141"/>
       <c r="O131" s="142"/>
     </row>
-    <row r="132" spans="2:15">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132" s="140"/>
       <c r="C132" s="141"/>
       <c r="D132" s="141"/>
@@ -6758,7 +6644,7 @@
       <c r="N132" s="141"/>
       <c r="O132" s="142"/>
     </row>
-    <row r="133" spans="2:15">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133" s="140"/>
       <c r="C133" s="141"/>
       <c r="D133" s="141"/>
@@ -6774,7 +6660,7 @@
       <c r="N133" s="141"/>
       <c r="O133" s="142"/>
     </row>
-    <row r="134" spans="2:15">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134" s="140"/>
       <c r="C134" s="141"/>
       <c r="D134" s="141"/>
@@ -6794,10 +6680,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_nuclear_gen2_uranium_oxide.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_nuclear_gen2_uranium_oxide.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B854E07C-9A08-8144-B4D4-2065594E0896}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9810D38D-CF2A-5145-B6DC-8E2330BCDA63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="158">
   <si>
     <t>Source</t>
   </si>
@@ -546,6 +552,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1313,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1553,6 +1562,7 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="257">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2535,12 +2545,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2714,23 +2724,23 @@
   </sheetPr>
   <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="33" customWidth="1"/>
     <col min="3" max="3" width="46" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="33" customWidth="1"/>
     <col min="7" max="7" width="45" style="33" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="33" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="33" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="33"/>
+    <col min="8" max="8" width="5.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3191,15 +3201,15 @@
         <v>3</v>
       </c>
       <c r="E28" s="42">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="32"/>
-      <c r="I28" s="30" t="s">
-        <v>56</v>
+      <c r="I28" s="150" t="s">
+        <v>157</v>
       </c>
       <c r="J28" s="93"/>
     </row>
@@ -3396,27 +3406,27 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="99" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="99" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="99" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="99" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="99" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="99" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="99" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="100" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="100" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" style="100" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="99" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="99" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="99" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="99" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="99" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="99" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="99" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="100" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="100" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="100" customWidth="1"/>
     <col min="12" max="12" width="3" style="100" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="100" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="100" customWidth="1"/>
     <col min="14" max="14" width="3" style="100" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="100" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="100" customWidth="1"/>
     <col min="16" max="16" width="3" style="100" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="100" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="100" customWidth="1"/>
     <col min="18" max="18" width="3" style="100" customWidth="1"/>
     <col min="19" max="19" width="60" style="99" customWidth="1"/>
-    <col min="20" max="16384" width="10.6640625" style="99"/>
+    <col min="20" max="16384" width="10.7109375" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
@@ -4029,18 +4039,18 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="44" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="44" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="93.83203125" style="44" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="44"/>
+    <col min="1" max="1" width="3.28515625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="44" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="93.85546875" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4172,7 +4182,7 @@
       <c r="J9" s="53"/>
       <c r="K9" s="68"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="34">
       <c r="B10" s="49"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -4378,11 +4388,11 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="132" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="132" customWidth="1"/>
     <col min="2" max="2" width="5" style="132" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="132"/>
+    <col min="3" max="16384" width="10.7109375" style="132"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
